--- a/monthly_revenue_growth_by_business_segment_graphs.xlsx
+++ b/monthly_revenue_growth_by_business_segment_graphs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xidan\Analysis_BrazilianE-CommercePublicDatasetbyOlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{857502D4-F8C4-4429-8EED-A152C6D0619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05AEA88-70DA-4B1E-9B1F-4453AA51C456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="11606" yWindow="-1689" windowWidth="16663" windowHeight="8863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_revenue_growth_by_busin" sheetId="1" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4549,15 +4549,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>147640</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>146956</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4883,7 +4883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ9"/>
   <sheetViews>
     <sheetView topLeftCell="BF55" workbookViewId="0">
@@ -7298,10 +7298,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
       <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
